--- a/파이썬/코딩교실 매크로/2.코딩교실운영/줌다운/영상보내기.xlsx
+++ b/파이썬/코딩교실 매크로/2.코딩교실운영/줌다운/영상보내기.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\2.코딩교실운영\줌다운\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Desktop\영상다운로드+링크발송\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF019C-677C-4C29-991C-1547E09216D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC229CC1-0D58-4769-BF1E-5D5CA8D96C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1OtNbXCfacE-IQBVD4xYjPVyoFesrrkKtNiZkeSKpjQU/edit?gid=1066845978#gid=1066845978</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1XwlljU4g69ycHrMerOpYVmmH-fxuhQGTJMQopedIKNE/edit?gid=1798834338#gid=1798834338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/u/0/folders/1mU0yKMgMRT0lGwQNRT5AhIMFi8IjMWXN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1월수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +211,18 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/u/0/folders/1_DjIKUqsvz7E32KDNL3FTeS7IH1Z6foS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1dPAMQHOBTvplyceJvifEiO91IjSFm_yR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/14VJzpS90RRwhikiItPbitrWP-OBRWTTLA6c0hZQ9VfI/edit?gid=1066845978#gid=1066845978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1J2w-1sjSW7mcINdaUiLw1fVB_y8tOA4tiLTC1BU6iwo/edit?gid=1066845978#gid=1066845978</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -783,13 +783,13 @@
         <v>15</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
@@ -807,10 +807,10 @@
         <v>16</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
@@ -819,13 +819,13 @@
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="8">
         <v>53006552</v>
@@ -849,16 +849,16 @@
         <v>5</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1">
@@ -870,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
@@ -885,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
@@ -900,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="8">
         <v>53004310</v>
@@ -909,43 +909,43 @@
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11"/>
       <c r="N11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12"/>
       <c r="P12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13"/>
       <c r="P13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14"/>
       <c r="P14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="8">
         <v>53004709</v>
@@ -971,11 +971,11 @@
     </row>
     <row r="21" spans="1:17">
       <c r="N21" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
@@ -1019,13 +1019,13 @@
     <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="O1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q7" r:id="rId4" location="gid=1066845978" xr:uid="{5077D61C-BEAF-4EE9-BBB6-557CEE64FC02}"/>
-    <hyperlink ref="Q8" r:id="rId5" location="gid=1798834338" xr:uid="{AB2AAEEE-4B8E-4AC8-A26E-484E0587F8F2}"/>
-    <hyperlink ref="Q9" r:id="rId6" xr:uid="{499DDFAA-7082-494B-BAF2-57EFC446E64B}"/>
-    <hyperlink ref="Q13" r:id="rId7" xr:uid="{3CB9F841-DAA4-4181-B383-CF587203776D}"/>
-    <hyperlink ref="Q4" r:id="rId8" location="gid=1066845978" xr:uid="{FF2ABEDA-BA16-496E-8AB2-79785228E6CE}"/>
-    <hyperlink ref="Q3" r:id="rId9" location="gid=1066845978" xr:uid="{256E383A-B948-42C9-89AD-1F343418AA79}"/>
-    <hyperlink ref="Q5" r:id="rId10" xr:uid="{1B404A7C-1E14-4BBC-9769-CBEF269540BC}"/>
+    <hyperlink ref="Q13" r:id="rId4" xr:uid="{3CB9F841-DAA4-4181-B383-CF587203776D}"/>
+    <hyperlink ref="Q4" r:id="rId5" location="gid=1066845978" xr:uid="{FF2ABEDA-BA16-496E-8AB2-79785228E6CE}"/>
+    <hyperlink ref="Q3" r:id="rId6" location="gid=1066845978" xr:uid="{256E383A-B948-42C9-89AD-1F343418AA79}"/>
+    <hyperlink ref="Q5" r:id="rId7" xr:uid="{1B404A7C-1E14-4BBC-9769-CBEF269540BC}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{C887AF09-CCB2-4901-9316-1BCD2853710B}"/>
+    <hyperlink ref="Q7" r:id="rId9" location="gid=1066845978" xr:uid="{C980559A-1C01-4325-A46D-99001F4A4C64}"/>
+    <hyperlink ref="Q8" r:id="rId10" location="gid=1066845978" xr:uid="{4879EF0C-FD13-4955-B072-A27C2A0F8316}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
